--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1580163D-C52D-450F-B839-9F9E528DD397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Register" sheetId="3" r:id="rId3"/>
-    <sheet name="TryEditor" sheetId="4" r:id="rId4"/>
-    <sheet name="Array" sheetId="5" r:id="rId5"/>
+    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Linked_List" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Queue" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Graph" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Stack" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Data Structures" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Login" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Register" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="TryEditor" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Array" sheetId="11" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J11"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -34,6 +35,81 @@
     <t>Static123@</t>
   </si>
   <si>
+    <t>Python code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>OutPut Result</t>
+    </r>
+  </si>
+  <si>
+    <t>print "hello"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "hello"</t>
+  </si>
+  <si>
+    <t>pythoncode</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>A23df</t>
+  </si>
+  <si>
+    <t>NameError: name 'A23df' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>alphanumeric check</t>
+  </si>
+  <si>
+    <t>number check</t>
+  </si>
+  <si>
+    <t>$%%^$^</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad token T_OP on line 1</t>
+  </si>
+  <si>
+    <t>special charecters check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>Error:input some data</t>
+  </si>
+  <si>
+    <t>blank space check</t>
+  </si>
+  <si>
+    <t>print "hello</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t>syntax check</t>
+  </si>
+  <si>
     <t>TestLab@123</t>
   </si>
   <si>
@@ -70,18 +146,6 @@
     <t>TestLab0987</t>
   </si>
   <si>
-    <t>pythoncode</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>print "hello"</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>system.out.println("hello");</t>
   </si>
   <si>
@@ -91,7 +155,19 @@
     <t>print hello''</t>
   </si>
   <si>
-    <t>SyntaxError: bad input on line 1</t>
+    <t>D6947as</t>
+  </si>
+  <si>
+    <t>NameError: name 'D647as' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>$#@!&lt;&gt;</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>NameError: name 'asdfgh' is not defined on line 1</t>
   </si>
   <si>
     <t>Python Code</t>
@@ -136,29 +212,58 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,16 +271,24 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -190,43 +303,110 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -416,25 +596,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -451,279 +626,627 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.13"/>
+    <col customWidth="1" min="2" max="2" width="41.13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="33.0"/>
+    <col customWidth="1" min="2" max="2" width="23.25"/>
+    <col customWidth="1" min="3" max="3" width="41.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>98726723737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.88"/>
+    <col customWidth="1" min="2" max="2" width="16.38"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" ht="30.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
+    <col customWidth="1" min="2" max="2" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>123434.0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
+    <col customWidth="1" min="2" max="2" width="40.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>123434.0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="35.5"/>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>9.8726723737E10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1580163D-C52D-450F-B839-9F9E528DD397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADE96C-B91A-4241-8860-EFB08406750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="TryEditor" sheetId="4" r:id="rId4"/>
-    <sheet name="Array" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Array" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -132,12 +137,30 @@
         print("Not Found")
 search([12, 23, 45, 67, 6, 90] , 12)</t>
   </si>
+  <si>
+    <t>D6947as</t>
+  </si>
+  <si>
+    <t>NameError: name 'D6947as' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>$#@!&lt;&gt;</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad token T_OP on line 1</t>
+  </si>
+  <si>
+    <t>NameError: name 'asdfgh' is not defined on line 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +182,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,10 +223,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,8 +239,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,12 +462,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,13 +495,13 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,13 +549,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,15 +658,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -641,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -649,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -657,7 +693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -665,12 +701,57 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{76F51B28-D178-4758-82F5-3A3F25E3B547}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F01133-B095-47D6-92F7-41580005B6F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -679,13 +760,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -694,7 +775,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -703,7 +784,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -712,7 +793,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>

--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1580163D-C52D-450F-B839-9F9E528DD397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mousu\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7C4FCD-DDFB-4C71-9C30-061379E12EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,11 @@
     <sheet name="Array" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>username</t>
   </si>
@@ -105,6 +109,53 @@
   <si>
     <t xml:space="preserve">SyntaxError: bad input on line 1
 </t>
+  </si>
+  <si>
+    <t>my_list = [1, 2, 3]
+my_list.append(4)
+print(my_list)</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 4</t>
+  </si>
+  <si>
+    <t>fruits = ["apple", "banana", "cherry", "date"]
+fruits.remove("banana")
+print(fruits)</t>
+  </si>
+  <si>
+    <t>['apple', 'cherry', 'date']</t>
+  </si>
+  <si>
+    <t>fruits = ["apple", "banana", "cherry", "date"]
+fruits.remove("banana")
+print(fruits</t>
+  </si>
+  <si>
+    <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
+costs = [2.50, 1.25, 0.75, 3.40, 2.10]
+total_cost = sum(costs)
+print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
+  </si>
+  <si>
+    <t>Total Cost of all Products: $10.00</t>
+  </si>
+  <si>
+    <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
+costs = [2.50, 1.25, 0.75, 3.40, 2.10]
+total_cost = sum(costs
+print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 4</t>
+  </si>
+  <si>
+    <t>def search(lst, value):
+ return value in lst
+print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
   </si>
   <si>
     <t>def search(input_list, num): 
@@ -121,23 +172,143 @@
 search([12, 23, 45, 67, 6, 90] , 12)</t>
   </si>
   <si>
+    <t>def search(input_list, num): 
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 25)</t>
+  </si>
+  <si>
+    <t>Element Found/Some Tests failed. Please review code</t>
+  </si>
+  <si>
+    <t>Element Not Found/Some Tests failed. Please review code</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
+  </si>
+  <si>
+    <t>2/Some Tests failed. Please review code</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-Element Found</t>
-  </si>
-  <si>
-    <t>def search(input_list, num): 
-    if (num in input_list):
-        print("Element Found")
-    else:
-        print("Not Found")
-search([12, 23, 45, 67, 6, 90] , 12)</t>
+def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= </t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception </t>
+  </si>
+  <si>
+    <t>The value is 2</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):
+\b
+\b
+\b
+return sum(len(str(num)) % 2 == 0 for num in nums)
+nums = [12, 345, 2, 6, 7896]
+result = findNumbers(nums)
+print(result)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> def findNumbers(nums):
+\b
+\b
+\b
+return sum(len(str(num)) % 2 == 0 for num in nums)
+nums = [12, 345, 2, 6, 7896
+result = findNumbers(nums)
+print(result)</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result)  # Output: [0, 1, 9, 16, 100]</t>
+  </si>
+  <si>
+    <t>Result : [0, 1, 9, 16, 100]</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result)  # Output: [0, 1, 9, 16, 100</t>
+  </si>
+  <si>
+    <t>Exception</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +330,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,6 +384,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,7 +649,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -675,13 +862,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="75.54296875" customWidth="1"/>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
     <col min="3" max="3" width="41.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,7 +893,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -712,15 +902,125 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="161" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="162.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="257" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="118" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADE96C-B91A-4241-8860-EFB08406750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F76C5BA-6E4C-44E1-9205-6D2464A76C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09AAE9C-0EF9-4C39-9551-7AA1937A0D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Login" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Linked_List" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Graph" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="TryEditor" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Array" sheetId="8" r:id="rId11"/>
+    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Linked_List" sheetId="4" r:id="rId4"/>
+    <sheet name="Graph" sheetId="5" r:id="rId5"/>
+    <sheet name="Tree" sheetId="6" r:id="rId6"/>
+    <sheet name="TryEditor" sheetId="7" r:id="rId7"/>
+    <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -131,17 +140,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>OutPut Result</t>
     </r>
@@ -213,16 +223,10 @@
     <t>D6947as</t>
   </si>
   <si>
-    <t>NameError: name 'D647as' is not defined on line 1</t>
-  </si>
-  <si>
     <t>$#@!&lt;&gt;</t>
   </si>
   <si>
     <t>asdfgh</t>
-  </si>
-  <si>
-    <t>NameError:name 'asdgh' is not defined on line 1</t>
   </si>
   <si>
     <t>Python Code</t>
@@ -410,87 +414,107 @@
  result = sortedSquares(nums)
  print(result) # Output: [0, 1, 9, 16, 100</t>
   </si>
+  <si>
+    <t>NameError: name 'D6947as' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>NameError: name 'asdfgh' is not defined on line 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -499,11 +523,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -517,132 +547,66 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -832,20 +796,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -862,21 +829,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,17 +852,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="13.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -902,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="13.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -911,27 +879,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="34.88"/>
-    <col customWidth="1" min="5" max="5" width="50.25"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -959,9 +928,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>8.767686667E9</v>
+        <v>8767686667</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -970,7 +939,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -983,7 +952,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -995,7 +964,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +984,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1004,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1021,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -1070,7 +1039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1089,15 +1058,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8">
-        <v>9.87654321E8</v>
+        <v>987654321</v>
       </c>
       <c r="C11" s="8">
-        <v>9.87654321E8</v>
+        <v>987654321</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -1109,7 +1078,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1098,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1115,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1133,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1181,164 +1150,166 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="6:8" ht="15.75" customHeight="1">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="6:8" ht="15.75" customHeight="1">
       <c r="F18" s="1"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="6:8" ht="15.75" customHeight="1">
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="6:8" ht="15.75" customHeight="1">
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="6:8" ht="15.75" customHeight="1">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="16.38"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" ht="30.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="24.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="14.4">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.2">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1349,16 +1320,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="19">
-        <v>123434.0</v>
-      </c>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:3" ht="13.2">
+      <c r="A4" s="16">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="13.2">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1369,7 +1340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="13.2">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1380,7 +1351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="13.2">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1391,47 +1362,48 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:3" ht="13.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="14.4">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.2">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1442,16 +1414,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="19">
-        <v>123434.0</v>
-      </c>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:3" ht="13.2">
+      <c r="A4" s="16">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="13.2">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1462,7 +1434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="13.2">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="13.2">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1484,30 +1456,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:3" ht="13.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="41.13"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1515,7 +1490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1523,7 +1498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1531,7 +1506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1539,214 +1514,217 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="13.2">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.2">
+      <c r="A6" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="13.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:2" ht="13.2">
+      <c r="A9" s="2">
+        <v>1234567</v>
+      </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.0"/>
-    <col customWidth="1" min="2" max="2" width="40.75"/>
-    <col customWidth="1" min="3" max="3" width="41.75"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
+      <c r="B6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.2">
+      <c r="A7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="26" t="s">
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="26" t="s">
+      <c r="C11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="21" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="B12" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
+      <c r="B16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="24"/>
+      <c r="B17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mousu\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09AAE9C-0EF9-4C39-9551-7AA1937A0D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA73FCA-C9B1-457C-97B8-85B81C302888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42660" yWindow="1890" windowWidth="19200" windowHeight="11175" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>username</t>
   </si>
@@ -223,12 +223,18 @@
     <t>D6947as</t>
   </si>
   <si>
+    <t>NameError: name 'D647as' is not defined on line 1</t>
+  </si>
+  <si>
     <t>$#@!&lt;&gt;</t>
   </si>
   <si>
     <t>asdfgh</t>
   </si>
   <si>
+    <t>NameError:name 'asdgh' is not defined on line 1</t>
+  </si>
+  <si>
     <t>Python Code</t>
   </si>
   <si>
@@ -238,80 +244,19 @@
     <t>print("hello");</t>
   </si>
   <si>
-    <t>my_list = [1, 2, 3]
- my_list.append(4)
- print(my_list)</t>
-  </si>
-  <si>
     <t>[1, 2, 3, 4]</t>
   </si>
   <si>
     <t>SyntaxError: EOF in multi-line statement on line 4</t>
   </si>
   <si>
-    <t>fruits = ["apple", "banana", "cherry", "date"]
- fruits.remove("banana")
- print(fruits)</t>
-  </si>
-  <si>
     <t>['apple', 'cherry', 'date']</t>
   </si>
   <si>
-    <t>fruits = ["apple", "banana", "cherry", "date"]
- fruits.remove("banana")
- print(fruits</t>
-  </si>
-  <si>
-    <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
- costs = [2.50, 1.25, 0.75, 3.40, 2.10]
- total_cost = sum(costs)
- print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
-  </si>
-  <si>
     <t>Total Cost of all Products: $10.00</t>
   </si>
   <si>
-    <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
- costs = [2.50, 1.25, 0.75, 3.40, 2.10]
- total_cost = sum(costs
- print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
-  </si>
-  <si>
     <t>SyntaxError: bad input on line 4</t>
-  </si>
-  <si>
-    <t>def search(input_list, num): 
- if(num in input_list):
- print("Element Found")
- \b
- \b
- else:
- print("Not Found")
- \b
- \b
- \b
- \b
- search([12, 23, 45, 67, 6, 90] , 12)</t>
-  </si>
-  <si>
-    <t>Element Found/Some Tests failed. Please review code</t>
-  </si>
-  <si>
-    <t>def search(input_list, num): 
- if(num in input_list):
- print("Element Found")
- \b
- \b
- else:
- print("Not Found")
- \b
- \b
- \b
- \b
- search([12, 23, 45, 67, 6, 90] , 25)</t>
-  </si>
-  <si>
-    <t>Element Not Found/Some Tests failed. Please review code</t>
   </si>
   <si>
     <t>def search(lst, value):
@@ -319,113 +264,213 @@
  print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
   </si>
   <si>
+    <t>NameError: name 'hello' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>my_list = [1, 2, 3]
+my_list.append(4)
+print(my_list)</t>
+  </si>
+  <si>
+    <t>fruits = ["apple", "banana", "cherry", "date"]
+fruits.remove("banana")
+print(fruits)</t>
+  </si>
+  <si>
+    <t>my_list = [1, 2, 3]
+my_list.append(4)
+print(my_list</t>
+  </si>
+  <si>
+    <t>fruits = ["apple", "banana", "cherry", "date"]
+fruits.remove("banana")
+print(fruits</t>
+  </si>
+  <si>
+    <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
+costs = [2.50, 1.25, 0.75, 3.40, 2.10]
+total_cost = sum(costs)
+print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
+  </si>
+  <si>
+    <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
+costs = [2.50, 1.25, 0.75, 3.40, 2.10]
+total_cost = sum(costs
+print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>Some Tests failed. Please review code</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 25)</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
     <t>def findMaxConsecutiveOnes(nums) :
- count = 0
- result = 0
- for i in range(0, len(nums)):
- if (nums[i] == 0):
- count = 0
- \b
- \b
- else:
- count+= 1
- \b
- \b
- result = max(result, count)
- \b
- \b
- print(result)
- \b
- \b
- findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
-  </si>
-  <si>
-    <t>2/Some Tests failed. Please review code</t>
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
   </si>
   <si>
     <t>def findMaxConsecutiveOnes(nums) :
- count = 0
- result = 0
- for i in range(0, len(nums)):
- if (nums[i] == 0):
- count = 0
- \b
- \b
- else:
- count+= 1
- \b
- \b
- result = max(result, count)
- \b
- \b
- print(result)
- \b
- \b
- findMaxConsecutiveOnes([1,0,1,1,0,1]</t>
-  </si>
-  <si>
-    <t>Exception</t>
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1]</t>
   </si>
   <si>
     <t>def findNumbers(nums):
- \b
- \b
- \b
- return sum(len(str(num)) % 2 == 0 for num in nums)
- nums = [12, 345, 2, 6, 7896]
- result = findNumbers(nums)
- print(result)</t>
-  </si>
-  <si>
-    <t>The value is 2</t>
+\b
+\b
+\b
+return sum(len(str(num)) % 2 == 0 for num in nums)
+nums = [12, 345, 2, 6, 7896]
+result = findNumbers(nums)
+print(result)</t>
   </si>
   <si>
     <t>def findNumbers(nums):
- \b
- \b
- \b
- return sum(len(str(num)) % 2 == 0 for num in nums)
- nums = [12, 345, 2, 6, 7896
- result = findNumbers(nums)
- print(result)</t>
+\b
+\b
+\b
+return sum(len(str(num)) % 2 == 0 for num in nums)
+nums = [12, 345, 2, 6, 7896
+result = findNumbers(nums)
+print(result)</t>
   </si>
   <si>
     <t>def sortedSquares(nums):
- \b
- \b
- \b
- \b
- return sorted(x**2 for x in nums)
- nums = [-4, -1, 0, 3, 10]
- result = sortedSquares(nums)
- print(result) # Output: [0, 1, 9, 16, 100]</t>
-  </si>
-  <si>
-    <t>Result : [0, 1, 9, 16, 100]</t>
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) # Output: [0, 1, 9, 16, 100]</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 13</t>
+  </si>
+  <si>
+    <t>Submission Successful</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 3</t>
+  </si>
+  <si>
+    <t>[0, 1, 9, 16, 100]</t>
+  </si>
+  <si>
+    <t>No tests were collected</t>
   </si>
   <si>
     <t>def sortedSquares(nums):
- \b
- \b
- \b
- \b
- return sorted(x**2 for x in nums)
- nums = [-4, -1, 0, 3, 10]
- result = sortedSquares(nums)
- print(result) # Output: [0, 1, 9, 16, 100</t>
-  </si>
-  <si>
-    <t>NameError: name 'D6947as' is not defined on line 1</t>
-  </si>
-  <si>
-    <t>NameError: name 'asdfgh' is not defined on line 1</t>
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) # Output: [0, 1, 9, 16, 100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -517,6 +562,18 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -553,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,9 +642,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,7 +887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -820,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -842,7 +919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -852,17 +929,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -870,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -892,12 +969,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -1194,13 +1271,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -1230,42 +1307,42 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
+    <row r="4" spans="1:6" ht="12.5">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="13.2">
+    <row r="5" spans="1:6" ht="12.5">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="13.2">
+    <row r="6" spans="1:6" ht="12.5">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="13.2">
+    <row r="7" spans="1:6" ht="12.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="13.2">
+    <row r="8" spans="1:6" ht="12.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="13.2">
+    <row r="9" spans="1:6" ht="12.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1286,13 +1363,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -1309,7 +1386,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="13.2">
+    <row r="3" spans="1:3" ht="12.5">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1320,7 +1397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2">
+    <row r="4" spans="1:3" ht="12.5">
       <c r="A4" s="16">
         <v>123434</v>
       </c>
@@ -1329,7 +1406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2">
+    <row r="5" spans="1:3" ht="12.5">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2">
+    <row r="6" spans="1:3" ht="12.5">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1351,7 +1428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2">
+    <row r="7" spans="1:3" ht="12.5">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1362,7 +1439,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2">
+    <row r="8" spans="1:3" ht="12.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
@@ -1380,13 +1457,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -1403,7 +1480,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="13.2">
+    <row r="3" spans="1:3" ht="12.5">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1414,7 +1491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2">
+    <row r="4" spans="1:3" ht="12.5">
       <c r="A4" s="16">
         <v>123434</v>
       </c>
@@ -1423,7 +1500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2">
+    <row r="5" spans="1:3" ht="12.5">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1434,7 +1511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2">
+    <row r="6" spans="1:3" ht="12.5">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2">
+    <row r="7" spans="1:3" ht="12.5">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1456,7 +1533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2">
+    <row r="8" spans="1:3" ht="12.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
@@ -1472,80 +1549,78 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="48.54296875" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="36.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="27.5" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.2">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.2">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="13.2">
-      <c r="A9" s="2">
-        <v>1234567</v>
-      </c>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
@@ -1558,171 +1633,229 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" customWidth="1"/>
+    <col min="1" max="1" width="70.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" ht="47" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" ht="59" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" ht="71.5" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:3" ht="63" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" ht="157" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:3" ht="157" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" ht="162" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="162" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="162" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" ht="260" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3" ht="260" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" ht="257" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" ht="104" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" ht="138" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" ht="118.5" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" ht="127.5" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.2">
-      <c r="A7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="C23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mousu\git\DsAlgoPortal_CucumberBDD\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA73FCA-C9B1-457C-97B8-85B81C302888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7763D7E3-2CC4-491A-8D3D-F17BC935B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42660" yWindow="1890" windowWidth="19200" windowHeight="11175" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
@@ -23,6 +18,12 @@
     <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E18"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,7 +221,7 @@
     <t>print hello''</t>
   </si>
   <si>
-    <t>D6947as</t>
+    <t>D647as</t>
   </si>
   <si>
     <t>NameError: name 'D647as' is not defined on line 1</t>
@@ -229,10 +230,10 @@
     <t>$#@!&lt;&gt;</t>
   </si>
   <si>
-    <t>asdfgh</t>
-  </si>
-  <si>
-    <t>NameError:name 'asdgh' is not defined on line 1</t>
+    <t>asdgh</t>
+  </si>
+  <si>
+    <t>NameError: name 'asdgh' is not defined on line 1</t>
   </si>
   <si>
     <t>Python Code</t>
@@ -242,26 +243,6 @@
   </si>
   <si>
     <t>print("hello");</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>SyntaxError: EOF in multi-line statement on line 4</t>
-  </si>
-  <si>
-    <t>['apple', 'cherry', 'date']</t>
-  </si>
-  <si>
-    <t>Total Cost of all Products: $10.00</t>
-  </si>
-  <si>
-    <t>SyntaxError: bad input on line 4</t>
-  </si>
-  <si>
-    <t>def search(lst, value):
-  return value in lst
- print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
   </si>
   <si>
     <t>NameError: name 'hello' is not defined on line 1</t>
@@ -272,14 +253,23 @@
 print(my_list)</t>
   </si>
   <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>my_list = [1, 2, 3]
+my_list.append(4)
+print(my_list</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 4</t>
+  </si>
+  <si>
     <t>fruits = ["apple", "banana", "cherry", "date"]
 fruits.remove("banana")
 print(fruits)</t>
   </si>
   <si>
-    <t>my_list = [1, 2, 3]
-my_list.append(4)
-print(my_list</t>
+    <t>['apple', 'cherry', 'date']</t>
   </si>
   <si>
     <t>fruits = ["apple", "banana", "cherry", "date"]
@@ -293,16 +283,16 @@
 print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
   </si>
   <si>
+    <t>Total Cost of all Products: $10.00</t>
+  </si>
+  <si>
     <t>products = ["Apples", "Oranges", "Bananas", "Milk", "Bread"]
 costs = [2.50, 1.25, 0.75, 3.40, 2.10]
 total_cost = sum(costs
 print("\nTotal Cost of all Products: ${:.2f}".format(total_cost))</t>
   </si>
   <si>
-    <t>Element Found</t>
-  </si>
-  <si>
-    <t>Some Tests failed. Please review code</t>
+    <t>SyntaxError: bad input on line 4</t>
   </si>
   <si>
     <t>def search(input_list, num): 
@@ -319,6 +309,12 @@
 search([12, 23, 45, 67, 6, 90] , 12)</t>
   </si>
   <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>Some Tests failed. Please review code</t>
+  </si>
+  <si>
     <t>def search(input_list, num): 
 if(num in input_list):
 print("Element Found")
@@ -334,6 +330,28 @@
   </si>
   <si>
     <t>Not Found</t>
+  </si>
+  <si>
+    <t>def search(lst, value):
+  return value in lst
+ print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 8</t>
   </si>
   <si>
     <t>def findMaxConsecutiveOnes(nums) :
@@ -357,6 +375,9 @@
 findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>def findMaxConsecutiveOnes(nums) :
 count = 0
 result = 0
@@ -378,6 +399,9 @@
 findMaxConsecutiveOnes([1,0,1,1,0,1]</t>
   </si>
   <si>
+    <t>SyntaxError: EOF in multi-line statement on line 13</t>
+  </si>
+  <si>
     <t>def findNumbers(nums):
 \b
 \b
@@ -388,6 +412,9 @@
 print(result)</t>
   </si>
   <si>
+    <t>Submission Successful</t>
+  </si>
+  <si>
     <t>def findNumbers(nums):
 \b
 \b
@@ -396,6 +423,23 @@
 nums = [12, 345, 2, 6, 7896
 result = findNumbers(nums)
 print(result)</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) </t>
+  </si>
+  <si>
+    <t>[0, 1, 9, 16, 100]</t>
   </si>
   <si>
     <t>def sortedSquares(nums):
@@ -409,38 +453,6 @@
 print(result) # Output: [0, 1, 9, 16, 100]</t>
   </si>
   <si>
-    <t>def search(input_list, num): 
-if(num in input_list):
-print("Element Found")
-\b
-\b
-else:
-print("Not Found")
-\b
-\b
-\b
-\b
-search([12, 23, 45, 67, 6, 90] , 12</t>
-  </si>
-  <si>
-    <t>SyntaxError: EOF in multi-line statement on line 8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SyntaxError: EOF in multi-line statement on line 13</t>
-  </si>
-  <si>
-    <t>Submission Successful</t>
-  </si>
-  <si>
-    <t>SyntaxError: bad input on line 3</t>
-  </si>
-  <si>
-    <t>[0, 1, 9, 16, 100]</t>
-  </si>
-  <si>
     <t>No tests were collected</t>
   </si>
   <si>
@@ -454,23 +466,12 @@
 result = sortedSquares(nums)
 print(result) # Output: [0, 1, 9, 16, 100]</t>
   </si>
-  <si>
-    <t xml:space="preserve">def sortedSquares(nums):
-\b
-\b
-\b
-\b
-return sorted(x**2 for x in nums)
-nums = [-4, -1, 0, 3, 10]
-result = sortedSquares(nums)
-print(result) </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,7 +487,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -510,13 +510,11 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -529,12 +527,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -552,27 +554,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -610,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,27 +627,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,11 +860,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -905,8 +885,1007 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -915,11 +1894,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -955,8 +1937,1004 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -965,16 +2943,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
     <col min="4" max="4" width="34.90625" customWidth="1"/>
     <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -1257,8 +3237,988 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
+    <row r="22" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1267,17 +4227,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -1307,50 +4268,1042 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="12.5">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="12.5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="12.5">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="12.5">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="12.5">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="12.5">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1359,17 +5312,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.26953125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +5340,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="12.5">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1397,7 +5351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="16">
         <v>123434</v>
       </c>
@@ -1406,7 +5360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +5371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1428,7 +5382,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1439,12 +5393,1005 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1453,17 +6400,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.26953125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +6428,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="12.5">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +6439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="16">
         <v>123434</v>
       </c>
@@ -1500,7 +6448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1511,7 +6459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +6470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1533,12 +6481,1005 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1547,16 +7488,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" customWidth="1"/>
+    <col min="1" max="1" width="48.453125" customWidth="1"/>
     <col min="2" max="2" width="41.08984375" customWidth="1"/>
+    <col min="3" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
@@ -1568,63 +7508,1057 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="36" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:2" ht="27" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="18">
+        <v>1234567</v>
+      </c>
+      <c r="B9" s="17"/>
     </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1633,17 +8567,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="70.1796875" customWidth="1"/>
+    <col min="1" max="1" width="70.08984375" customWidth="1"/>
     <col min="2" max="2" width="43.90625" customWidth="1"/>
     <col min="3" max="3" width="41.7265625" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -1653,7 +8586,7 @@
       <c r="B1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -1662,202 +8595,1180 @@
       <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" ht="50" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>73</v>
+    <row r="4" spans="1:3" ht="49.5" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" ht="71.25" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" ht="47" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" ht="59" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:3" ht="71.5" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="63" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" ht="156.75" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="22"/>
     </row>
-    <row r="10" spans="1:3" ht="157" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3" ht="157" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:3" ht="156.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" ht="162" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="162" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>82</v>
+      <c r="A13" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>71</v>
+      <c r="C13" s="22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="162" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" ht="256.5" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:3" ht="260" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" ht="260" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" ht="257" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="23">
         <v>2</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>86</v>
+      <c r="A19" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" ht="104" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="138" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="118.5" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="B22" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="22"/>
     </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>